--- a/Final data/Excel_Files/test2_wet_strain_3min_DRY.xlsx
+++ b/Final data/Excel_Files/test2_wet_strain_3min_DRY.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec\Desktop\Code\school\4803 Alien\Final Project\Final data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alec\Desktop\Code\school\4803 Alien\Final Project\Final data\Excel_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC42FA32-5E7B-4814-ACAB-32049101850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6373C4A-5338-4F14-876C-C73C82955DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="16200" windowHeight="11295"/>
+    <workbookView xWindow="-20940" yWindow="210" windowWidth="16200" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test2_wet_strain_3min_DRY" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -872,11 +885,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J169" sqref="J169"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="I176" sqref="I176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,7 +910,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>((B2*86400))-8.266</f>
+        <f t="shared" ref="A2:A33" si="0">((B2*86400))-8.266</f>
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -918,7 +931,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>((B3*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>0.2029999999999994</v>
       </c>
       <c r="B3" s="1">
@@ -936,7 +949,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>((B4*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>0.40600000000000236</v>
       </c>
       <c r="B4" s="1">
@@ -954,7 +967,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>((B5*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>0.60899999999999821</v>
       </c>
       <c r="B5" s="1">
@@ -972,7 +985,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>((B6*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>0.7970000000000006</v>
       </c>
       <c r="B6" s="1">
@@ -990,7 +1003,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>((B7*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="B7" s="1">
@@ -1008,7 +1021,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>((B8*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>1.2030000000000012</v>
       </c>
       <c r="B8" s="1">
@@ -1026,7 +1039,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>((B9*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>1.4060000000000006</v>
       </c>
       <c r="B9" s="1">
@@ -1044,7 +1057,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>((B10*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>1.609</v>
       </c>
       <c r="B10" s="1">
@@ -1062,7 +1075,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>((B11*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>1.8130000000000024</v>
       </c>
       <c r="B11" s="1">
@@ -1080,7 +1093,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>((B12*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>2.0159999999999982</v>
       </c>
       <c r="B12" s="1">
@@ -1098,7 +1111,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>((B13*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>2.2189999999999994</v>
       </c>
       <c r="B13" s="1">
@@ -1116,7 +1129,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f>((B14*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>2.4219999999999988</v>
       </c>
       <c r="B14" s="1">
@@ -1134,7 +1147,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f>((B15*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>2.625</v>
       </c>
       <c r="B15" s="1">
@@ -1152,7 +1165,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f>((B16*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>2.8279999999999994</v>
       </c>
       <c r="B16" s="1">
@@ -1170,7 +1183,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f>((B17*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>3.0309999999999988</v>
       </c>
       <c r="B17" s="1">
@@ -1188,7 +1201,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f>((B18*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>3.234</v>
       </c>
       <c r="B18" s="1">
@@ -1206,7 +1219,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f>((B19*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>3.4380000000000006</v>
       </c>
       <c r="B19" s="1">
@@ -1224,7 +1237,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f>((B20*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>3.641</v>
       </c>
       <c r="B20" s="1">
@@ -1242,7 +1255,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f>((B21*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>3.8279999999999976</v>
       </c>
       <c r="B21" s="1">
@@ -1260,7 +1273,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f>((B22*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>4.0310000000000024</v>
       </c>
       <c r="B22" s="1">
@@ -1278,7 +1291,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f>((B23*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>4.2340000000000018</v>
       </c>
       <c r="B23" s="1">
@@ -1296,7 +1309,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f>((B24*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>4.4380000000000006</v>
       </c>
       <c r="B24" s="1">
@@ -1314,7 +1327,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f>((B25*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>4.641</v>
       </c>
       <c r="B25" s="1">
@@ -1332,7 +1345,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f>((B26*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>4.8439999999999994</v>
       </c>
       <c r="B26" s="1">
@@ -1350,7 +1363,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f>((B27*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>5.0470000000000024</v>
       </c>
       <c r="B27" s="1">
@@ -1368,7 +1381,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f>((B28*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>5.25</v>
       </c>
       <c r="B28" s="1">
@@ -1386,7 +1399,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f>((B29*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>5.4529999999999994</v>
       </c>
       <c r="B29" s="1">
@@ -1404,7 +1417,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f>((B30*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>5.6560000000000006</v>
       </c>
       <c r="B30" s="1">
@@ -1422,7 +1435,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f>((B31*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>5.8590000000000018</v>
       </c>
       <c r="B31" s="1">
@@ -1440,7 +1453,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f>((B32*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>6.0630000000000006</v>
       </c>
       <c r="B32" s="1">
@@ -1458,7 +1471,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f>((B33*86400))-8.266</f>
+        <f t="shared" si="0"/>
         <v>6.266</v>
       </c>
       <c r="B33" s="1">
@@ -1476,7 +1489,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f>((B34*86400))-8.266</f>
+        <f t="shared" ref="A34:A65" si="1">((B34*86400))-8.266</f>
         <v>6.4689999999999994</v>
       </c>
       <c r="B34" s="1">
@@ -1494,7 +1507,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f>((B35*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>6.6719999999999988</v>
       </c>
       <c r="B35" s="1">
@@ -1512,7 +1525,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f>((B36*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>6.8750000000000018</v>
       </c>
       <c r="B36" s="1">
@@ -1530,7 +1543,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f>((B37*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>7.0630000000000006</v>
       </c>
       <c r="B37" s="1">
@@ -1548,7 +1561,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f>((B38*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>7.2660000000000018</v>
       </c>
       <c r="B38" s="1">
@@ -1566,7 +1579,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f>((B39*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>7.4690000000000012</v>
       </c>
       <c r="B39" s="1">
@@ -1584,7 +1597,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f>((B40*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>7.6720000000000006</v>
       </c>
       <c r="B40" s="1">
@@ -1602,7 +1615,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f>((B41*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>7.8749999999999947</v>
       </c>
       <c r="B41" s="1">
@@ -1620,7 +1633,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f>((B42*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>8.0780000000000012</v>
       </c>
       <c r="B42" s="1">
@@ -1638,7 +1651,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f>((B43*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>8.2810000000000006</v>
       </c>
       <c r="B43" s="1">
@@ -1656,7 +1669,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f>((B44*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>8.484</v>
       </c>
       <c r="B44" s="1">
@@ -1674,7 +1687,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f>((B45*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>8.6880000000000006</v>
       </c>
       <c r="B45" s="1">
@@ -1692,7 +1705,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f>((B46*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>8.891</v>
       </c>
       <c r="B46" s="1">
@@ -1710,7 +1723,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f>((B47*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>9.0939999999999994</v>
       </c>
       <c r="B47" s="1">
@@ -1728,7 +1741,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
-        <f>((B48*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>9.2969999999999988</v>
       </c>
       <c r="B48" s="1">
@@ -1746,7 +1759,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
-        <f>((B49*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>9.4999999999999982</v>
       </c>
       <c r="B49" s="1">
@@ -1764,7 +1777,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
-        <f>((B50*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>9.7030000000000047</v>
       </c>
       <c r="B50" s="1">
@@ -1782,7 +1795,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
-        <f>((B51*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>9.9060000000000006</v>
       </c>
       <c r="B51" s="1">
@@ -1800,7 +1813,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
-        <f>((B52*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>10.109000000000004</v>
       </c>
       <c r="B52" s="1">
@@ -1818,7 +1831,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
-        <f>((B53*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>10.296999999999999</v>
       </c>
       <c r="B53" s="1">
@@ -1836,7 +1849,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
-        <f>((B54*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>10.499999999999998</v>
       </c>
       <c r="B54" s="1">
@@ -1854,7 +1867,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
-        <f>((B55*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>10.703000000000001</v>
       </c>
       <c r="B55" s="1">
@@ -1872,7 +1885,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
-        <f>((B56*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>10.906000000000001</v>
       </c>
       <c r="B56" s="1">
@@ -1890,7 +1903,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
-        <f>((B57*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>11.109</v>
       </c>
       <c r="B57" s="1">
@@ -1908,7 +1921,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
-        <f>((B58*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>11.313000000000004</v>
       </c>
       <c r="B58" s="1">
@@ -1926,7 +1939,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
-        <f>((B59*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>11.516</v>
       </c>
       <c r="B59" s="1">
@@ -1944,7 +1957,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
-        <f>((B60*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>11.718999999999999</v>
       </c>
       <c r="B60" s="1">
@@ -1962,7 +1975,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
-        <f>((B61*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>11.921999999999999</v>
       </c>
       <c r="B61" s="1">
@@ -1980,7 +1993,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
-        <f>((B62*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>12.124999999999998</v>
       </c>
       <c r="B62" s="1">
@@ -1998,7 +2011,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
-        <f>((B63*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>12.328000000000001</v>
       </c>
       <c r="B63" s="1">
@@ -2016,7 +2029,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
-        <f>((B64*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>12.531000000000001</v>
       </c>
       <c r="B64" s="1">
@@ -2034,7 +2047,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
-        <f>((B65*86400))-8.266</f>
+        <f t="shared" si="1"/>
         <v>12.733999999999996</v>
       </c>
       <c r="B65" s="1">
@@ -2052,7 +2065,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
-        <f>((B66*86400))-8.266</f>
+        <f t="shared" ref="A66:A97" si="2">((B66*86400))-8.266</f>
         <v>12.938000000000001</v>
       </c>
       <c r="B66" s="1">
@@ -2070,7 +2083,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
-        <f>((B67*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>13.141</v>
       </c>
       <c r="B67" s="1">
@@ -2088,7 +2101,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f>((B68*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>13.343999999999996</v>
       </c>
       <c r="B68" s="1">
@@ -2106,7 +2119,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f>((B69*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>13.546999999999999</v>
       </c>
       <c r="B69" s="1">
@@ -2124,7 +2137,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f>((B70*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>13.733999999999996</v>
       </c>
       <c r="B70" s="1">
@@ -2142,7 +2155,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f>((B71*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>13.938000000000001</v>
       </c>
       <c r="B71" s="1">
@@ -2160,7 +2173,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f>((B72*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>14.141</v>
       </c>
       <c r="B72" s="1">
@@ -2178,7 +2191,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f>((B73*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>14.343999999999999</v>
       </c>
       <c r="B73" s="1">
@@ -2196,7 +2209,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f>((B74*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>14.546999999999999</v>
       </c>
       <c r="B74" s="1">
@@ -2214,7 +2227,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f>((B75*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>14.749999999999998</v>
       </c>
       <c r="B75" s="1">
@@ -2232,7 +2245,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f>((B76*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>14.952999999999998</v>
       </c>
       <c r="B76" s="1">
@@ -2250,7 +2263,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f>((B77*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>15.156000000000004</v>
       </c>
       <c r="B77" s="1">
@@ -2268,7 +2281,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f>((B78*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>15.358999999999996</v>
       </c>
       <c r="B78" s="1">
@@ -2286,7 +2299,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f>((B79*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>15.563000000000001</v>
       </c>
       <c r="B79" s="1">
@@ -2304,7 +2317,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f>((B80*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>15.766000000000004</v>
       </c>
       <c r="B80" s="1">
@@ -2322,7 +2335,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f>((B81*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>15.968999999999999</v>
       </c>
       <c r="B81" s="1">
@@ -2340,7 +2353,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f>((B82*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>16.171999999999997</v>
       </c>
       <c r="B82" s="1">
@@ -2358,7 +2371,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f>((B83*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>16.375</v>
       </c>
       <c r="B83" s="1">
@@ -2376,7 +2389,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
-        <f>((B84*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>16.578000000000003</v>
       </c>
       <c r="B84" s="1">
@@ -2394,7 +2407,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
-        <f>((B85*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>16.780999999999999</v>
       </c>
       <c r="B85" s="1">
@@ -2412,7 +2425,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
-        <f>((B86*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>16.968999999999994</v>
       </c>
       <c r="B86" s="1">
@@ -2430,7 +2443,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
-        <f>((B87*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>17.171999999999997</v>
       </c>
       <c r="B87" s="1">
@@ -2448,7 +2461,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
-        <f>((B88*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>17.375</v>
       </c>
       <c r="B88" s="1">
@@ -2466,7 +2479,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
-        <f>((B89*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>17.578000000000003</v>
       </c>
       <c r="B89" s="1">
@@ -2484,7 +2497,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
-        <f>((B90*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>17.780999999999999</v>
       </c>
       <c r="B90" s="1">
@@ -2502,7 +2515,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
-        <f>((B91*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>17.984000000000002</v>
       </c>
       <c r="B91" s="1">
@@ -2520,7 +2533,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
-        <f>((B92*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>18.188000000000002</v>
       </c>
       <c r="B92" s="1">
@@ -2538,7 +2551,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
-        <f>((B93*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>18.390999999999998</v>
       </c>
       <c r="B93" s="1">
@@ -2556,7 +2569,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
-        <f>((B94*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>18.594000000000001</v>
       </c>
       <c r="B94" s="1">
@@ -2574,7 +2587,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
-        <f>((B95*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>18.797000000000004</v>
       </c>
       <c r="B95" s="1">
@@ -2592,7 +2605,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
-        <f>((B96*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B96" s="1">
@@ -2610,7 +2623,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
-        <f>((B97*86400))-8.266</f>
+        <f t="shared" si="2"/>
         <v>19.203000000000003</v>
       </c>
       <c r="B97" s="1">
@@ -2628,7 +2641,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
-        <f>((B98*86400))-8.266</f>
+        <f t="shared" ref="A98:A129" si="3">((B98*86400))-8.266</f>
         <v>19.405999999999999</v>
       </c>
       <c r="B98" s="1">
@@ -2646,7 +2659,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f>((B99*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>19.609000000000002</v>
       </c>
       <c r="B99" s="1">
@@ -2664,7 +2677,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f>((B100*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>19.813000000000002</v>
       </c>
       <c r="B100" s="1">
@@ -2682,7 +2695,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f>((B101*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>20.015999999999998</v>
       </c>
       <c r="B101" s="1">
@@ -2700,7 +2713,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f>((B102*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>20.218999999999994</v>
       </c>
       <c r="B102" s="1">
@@ -2718,7 +2731,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f>((B103*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>20.405999999999999</v>
       </c>
       <c r="B103" s="1">
@@ -2736,7 +2749,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f>((B104*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>20.609000000000002</v>
       </c>
       <c r="B104" s="1">
@@ -2754,7 +2767,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f>((B105*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>20.813000000000002</v>
       </c>
       <c r="B105" s="1">
@@ -2772,7 +2785,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f>((B106*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>21.015999999999998</v>
       </c>
       <c r="B106" s="1">
@@ -2790,7 +2803,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f>((B107*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>21.219000000000001</v>
       </c>
       <c r="B107" s="1">
@@ -2808,7 +2821,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f>((B108*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>21.421999999999997</v>
       </c>
       <c r="B108" s="1">
@@ -2826,7 +2839,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f>((B109*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>21.625</v>
       </c>
       <c r="B109" s="1">
@@ -2844,7 +2857,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f>((B110*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>21.828000000000003</v>
       </c>
       <c r="B110" s="1">
@@ -2862,7 +2875,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f>((B111*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>22.031000000000006</v>
       </c>
       <c r="B111" s="1">
@@ -2880,7 +2893,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f>((B112*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>22.233999999999995</v>
       </c>
       <c r="B112" s="1">
@@ -2898,7 +2911,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f>((B113*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>22.438000000000002</v>
       </c>
       <c r="B113" s="1">
@@ -2916,7 +2929,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f>((B114*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>22.641000000000005</v>
       </c>
       <c r="B114" s="1">
@@ -2934,7 +2947,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
-        <f>((B115*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>22.843999999999994</v>
       </c>
       <c r="B115" s="1">
@@ -2952,7 +2965,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
-        <f>((B116*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>23.047000000000004</v>
       </c>
       <c r="B116" s="1">
@@ -2970,7 +2983,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
-        <f>((B117*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>23.25</v>
       </c>
       <c r="B117" s="1">
@@ -2988,7 +3001,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
-        <f>((B118*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>23.453000000000003</v>
       </c>
       <c r="B118" s="1">
@@ -3006,7 +3019,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
-        <f>((B119*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>23.641000000000005</v>
       </c>
       <c r="B119" s="1">
@@ -3024,7 +3037,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
-        <f>((B120*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>23.844000000000001</v>
       </c>
       <c r="B120" s="1">
@@ -3042,7 +3055,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
-        <f>((B121*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>24.047000000000004</v>
       </c>
       <c r="B121" s="1">
@@ -3060,7 +3073,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
-        <f>((B122*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>24.25</v>
       </c>
       <c r="B122" s="1">
@@ -3078,7 +3091,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
-        <f>((B123*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>24.453000000000003</v>
       </c>
       <c r="B123" s="1">
@@ -3096,7 +3109,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
-        <f>((B124*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>24.655999999999999</v>
       </c>
       <c r="B124" s="1">
@@ -3114,7 +3127,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
-        <f>((B125*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>24.859000000000002</v>
       </c>
       <c r="B125" s="1">
@@ -3132,7 +3145,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
-        <f>((B126*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>25.063000000000002</v>
       </c>
       <c r="B126" s="1">
@@ -3150,7 +3163,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
-        <f>((B127*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>25.265999999999991</v>
       </c>
       <c r="B127" s="1">
@@ -3168,7 +3181,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
-        <f>((B128*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>25.469000000000001</v>
       </c>
       <c r="B128" s="1">
@@ -3186,7 +3199,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
-        <f>((B129*86400))-8.266</f>
+        <f t="shared" si="3"/>
         <v>25.672000000000004</v>
       </c>
       <c r="B129" s="1">
@@ -3204,7 +3217,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
-        <f>((B130*86400))-8.266</f>
+        <f t="shared" ref="A130:A161" si="4">((B130*86400))-8.266</f>
         <v>25.875</v>
       </c>
       <c r="B130" s="1">
@@ -3222,7 +3235,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
-        <f>((B131*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>26.078000000000003</v>
       </c>
       <c r="B131" s="1">
@@ -3240,7 +3253,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f>((B132*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>26.281000000000006</v>
       </c>
       <c r="B132" s="1">
@@ -3258,7 +3271,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f>((B133*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>26.484000000000009</v>
       </c>
       <c r="B133" s="1">
@@ -3276,7 +3289,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f>((B134*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>26.688000000000002</v>
       </c>
       <c r="B134" s="1">
@@ -3294,7 +3307,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f>((B135*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>26.890999999999998</v>
       </c>
       <c r="B135" s="1">
@@ -3312,7 +3325,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f>((B136*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>27.094000000000008</v>
       </c>
       <c r="B136" s="1">
@@ -3330,7 +3343,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f>((B137*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>27.280999999999999</v>
       </c>
       <c r="B137" s="1">
@@ -3348,7 +3361,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f>((B138*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>27.484000000000002</v>
       </c>
       <c r="B138" s="1">
@@ -3366,7 +3379,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f>((B139*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>27.688000000000009</v>
       </c>
       <c r="B139" s="1">
@@ -3384,7 +3397,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f>((B140*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>27.890999999999991</v>
       </c>
       <c r="B140" s="1">
@@ -3402,7 +3415,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f>((B141*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>28.094000000000001</v>
       </c>
       <c r="B141" s="1">
@@ -3420,7 +3433,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f>((B142*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>28.297000000000004</v>
       </c>
       <c r="B142" s="1">
@@ -3438,7 +3451,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f>((B143*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>28.5</v>
       </c>
       <c r="B143" s="1">
@@ -3456,7 +3469,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f>((B144*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>28.703000000000003</v>
       </c>
       <c r="B144" s="1">
@@ -3474,7 +3487,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f>((B145*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>28.905999999999999</v>
       </c>
       <c r="B145" s="1">
@@ -3492,7 +3505,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f>((B146*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>29.109000000000002</v>
       </c>
       <c r="B146" s="1">
@@ -3510,7 +3523,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f>((B147*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>29.312999999999995</v>
       </c>
       <c r="B147" s="1">
@@ -3528,7 +3541,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
-        <f>((B148*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>29.515999999999998</v>
       </c>
       <c r="B148" s="1">
@@ -3546,7 +3559,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
-        <f>((B149*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>29.719000000000008</v>
       </c>
       <c r="B149" s="1">
@@ -3564,7 +3577,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
-        <f>((B150*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>29.922000000000004</v>
       </c>
       <c r="B150" s="1">
@@ -3582,7 +3595,7 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
-        <f>((B151*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>30.124999999999993</v>
       </c>
       <c r="B151" s="1">
@@ -3600,7 +3613,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
-        <f>((B152*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>30.328000000000003</v>
       </c>
       <c r="B152" s="1">
@@ -3618,7 +3631,7 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
-        <f>((B153*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>30.530999999999999</v>
       </c>
       <c r="B153" s="1">
@@ -3636,7 +3649,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
-        <f>((B154*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>30.734000000000002</v>
       </c>
       <c r="B154" s="1">
@@ -3654,7 +3667,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
-        <f>((B155*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>30.922000000000004</v>
       </c>
       <c r="B155" s="1">
@@ -3672,7 +3685,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
-        <f>((B156*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>31.125</v>
       </c>
       <c r="B156" s="1">
@@ -3690,7 +3703,7 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
-        <f>((B157*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>31.328000000000003</v>
       </c>
       <c r="B157" s="1">
@@ -3708,7 +3721,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
-        <f>((B158*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>31.531000000000006</v>
       </c>
       <c r="B158" s="1">
@@ -3726,7 +3739,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
-        <f>((B159*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>31.734000000000002</v>
       </c>
       <c r="B159" s="1">
@@ -3744,7 +3757,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
-        <f>((B160*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>31.938000000000002</v>
       </c>
       <c r="B160" s="1">
@@ -3762,7 +3775,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f>((B161*86400))-8.266</f>
+        <f t="shared" si="4"/>
         <v>32.141000000000005</v>
       </c>
       <c r="B161" s="1">
@@ -3780,7 +3793,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f>((B162*86400))-8.266</f>
+        <f t="shared" ref="A162:A193" si="5">((B162*86400))-8.266</f>
         <v>32.343999999999994</v>
       </c>
       <c r="B162" s="1">
@@ -3798,7 +3811,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f>((B163*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>32.547000000000004</v>
       </c>
       <c r="B163" s="1">
@@ -3816,7 +3829,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f>((B164*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>32.750000000000007</v>
       </c>
       <c r="B164" s="1">
@@ -3834,7 +3847,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f>((B165*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>32.95300000000001</v>
       </c>
       <c r="B165" s="1">
@@ -3852,7 +3865,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f>((B166*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>33.155999999999992</v>
       </c>
       <c r="B166" s="1">
@@ -3870,7 +3883,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f>((B167*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>33.344000000000001</v>
       </c>
       <c r="B167" s="1">
@@ -3888,7 +3901,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f>((B168*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>33.547000000000004</v>
       </c>
       <c r="B168" s="1">
@@ -3906,7 +3919,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f>((B169*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>33.75</v>
       </c>
       <c r="B169" s="1">
@@ -3924,7 +3937,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f>((B170*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>33.953000000000003</v>
       </c>
       <c r="B170" s="1">
@@ -3942,7 +3955,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f>((B171*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>34.155999999999999</v>
       </c>
       <c r="B171" s="1">
@@ -3960,7 +3973,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f>((B172*86400))-8.266</f>
+        <f t="shared" si="5"/>
         <v>34.359000000000002</v>
       </c>
       <c r="B172" s="1">
@@ -3978,7 +3991,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f>((B173*86400))-6.063</f>
+        <f t="shared" ref="A173:A236" si="6">((B173*86400))-6.063</f>
         <v>0</v>
       </c>
       <c r="B173" s="1">
@@ -3999,7 +4012,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f>((B174*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>0.20300000000000029</v>
       </c>
       <c r="B174" s="1">
@@ -4017,7 +4030,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f>((B175*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>0.40600000000000058</v>
       </c>
       <c r="B175" s="1">
@@ -4035,7 +4048,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f>((B176*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>0.60899999999999999</v>
       </c>
       <c r="B176" s="1">
@@ -4053,7 +4066,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
-        <f>((B177*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>0.81199999999999939</v>
       </c>
       <c r="B177" s="1">
@@ -4071,7 +4084,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
-        <f>((B178*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>1.0159999999999991</v>
       </c>
       <c r="B178" s="1">
@@ -4089,7 +4102,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
-        <f>((B179*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>1.2190000000000012</v>
       </c>
       <c r="B179" s="1">
@@ -4107,7 +4120,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
-        <f>((B180*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>1.4220000000000006</v>
       </c>
       <c r="B180" s="1">
@@ -4125,7 +4138,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
-        <f>((B181*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>1.625</v>
       </c>
       <c r="B181" s="1">
@@ -4143,7 +4156,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
-        <f>((B182*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>1.8280000000000012</v>
       </c>
       <c r="B182" s="1">
@@ -4161,7 +4174,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
-        <f>((B183*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>2.0309999999999997</v>
       </c>
       <c r="B183" s="1">
@@ -4179,7 +4192,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
-        <f>((B184*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>2.2190000000000003</v>
       </c>
       <c r="B184" s="1">
@@ -4197,7 +4210,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
-        <f>((B185*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>2.4219999999999997</v>
       </c>
       <c r="B185" s="1">
@@ -4215,7 +4228,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
-        <f>((B186*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>2.6250000000000009</v>
       </c>
       <c r="B186" s="1">
@@ -4233,7 +4246,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
-        <f>((B187*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>2.8280000000000003</v>
       </c>
       <c r="B187" s="1">
@@ -4251,7 +4264,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
-        <f>((B188*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>3.0309999999999997</v>
       </c>
       <c r="B188" s="1">
@@ -4269,7 +4282,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
-        <f>((B189*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>3.2340000000000009</v>
       </c>
       <c r="B189" s="1">
@@ -4287,7 +4300,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f>((B190*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>3.4370000000000003</v>
       </c>
       <c r="B190" s="1">
@@ -4305,7 +4318,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f>((B191*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>3.6410000000000009</v>
       </c>
       <c r="B191" s="1">
@@ -4323,7 +4336,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f>((B192*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>3.8440000000000003</v>
       </c>
       <c r="B192" s="1">
@@ -4341,7 +4354,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f>((B193*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>4.0469999999999997</v>
       </c>
       <c r="B193" s="1">
@@ -4359,7 +4372,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f>((B194*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>4.2499999999999991</v>
       </c>
       <c r="B194" s="1">
@@ -4377,7 +4390,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f>((B195*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>4.4530000000000003</v>
       </c>
       <c r="B195" s="1">
@@ -4395,7 +4408,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f>((B196*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>4.6560000000000015</v>
       </c>
       <c r="B196" s="1">
@@ -4413,7 +4426,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f>((B197*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>4.8590000000000009</v>
       </c>
       <c r="B197" s="1">
@@ -4431,7 +4444,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f>((B198*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>5.0620000000000003</v>
       </c>
       <c r="B198" s="1">
@@ -4449,7 +4462,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f>((B199*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>5.2660000000000027</v>
       </c>
       <c r="B199" s="1">
@@ -4467,7 +4480,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f>((B200*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>5.4530000000000003</v>
       </c>
       <c r="B200" s="1">
@@ -4485,7 +4498,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f>((B201*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>5.6559999999999997</v>
       </c>
       <c r="B201" s="1">
@@ -4503,7 +4516,7 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f>((B202*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>5.8589999999999991</v>
       </c>
       <c r="B202" s="1">
@@ -4521,7 +4534,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f>((B203*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>6.0620000000000003</v>
       </c>
       <c r="B203" s="1">
@@ -4539,7 +4552,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f>((B204*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>6.2660000000000009</v>
       </c>
       <c r="B204" s="1">
@@ -4557,7 +4570,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f>((B205*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>6.4690000000000003</v>
       </c>
       <c r="B205" s="1">
@@ -4575,7 +4588,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
-        <f>((B206*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>6.6719999999999997</v>
       </c>
       <c r="B206" s="1">
@@ -4593,7 +4606,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
-        <f>((B207*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>6.8750000000000009</v>
       </c>
       <c r="B207" s="1">
@@ -4611,7 +4624,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
-        <f>((B208*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>7.0780000000000003</v>
       </c>
       <c r="B208" s="1">
@@ -4629,7 +4642,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
-        <f>((B209*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>7.2809999999999997</v>
       </c>
       <c r="B209" s="1">
@@ -4647,7 +4660,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
-        <f>((B210*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>7.4839999999999991</v>
       </c>
       <c r="B210" s="1">
@@ -4665,7 +4678,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211">
-        <f>((B211*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>7.6869999999999985</v>
       </c>
       <c r="B211" s="1">
@@ -4683,7 +4696,7 @@
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
-        <f>((B212*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>7.8910000000000009</v>
       </c>
       <c r="B212" s="1">
@@ -4701,7 +4714,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
-        <f>((B213*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>8.0940000000000012</v>
       </c>
       <c r="B213" s="1">
@@ -4719,7 +4732,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
-        <f>((B214*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>8.296999999999997</v>
       </c>
       <c r="B214" s="1">
@@ -4737,7 +4750,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
-        <f>((B215*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>8.5</v>
       </c>
       <c r="B215" s="1">
@@ -4755,7 +4768,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
-        <f>((B216*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>8.6869999999999976</v>
       </c>
       <c r="B216" s="1">
@@ -4773,7 +4786,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
-        <f>((B217*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>8.8910000000000018</v>
       </c>
       <c r="B217" s="1">
@@ -4791,7 +4804,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
-        <f>((B218*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>9.0939999999999976</v>
       </c>
       <c r="B218" s="1">
@@ -4809,7 +4822,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
-        <f>((B219*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>9.2970000000000006</v>
       </c>
       <c r="B219" s="1">
@@ -4827,7 +4840,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
-        <f>((B220*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>9.5</v>
       </c>
       <c r="B220" s="1">
@@ -4845,7 +4858,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
-        <f>((B221*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>9.7029999999999994</v>
       </c>
       <c r="B221" s="1">
@@ -4863,7 +4876,7 @@
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
-        <f>((B222*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>9.9059999999999988</v>
       </c>
       <c r="B222" s="1">
@@ -4881,7 +4894,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223">
-        <f>((B223*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>10.109000000000002</v>
       </c>
       <c r="B223" s="1">
@@ -4899,7 +4912,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
-        <f>((B224*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>10.312000000000001</v>
       </c>
       <c r="B224" s="1">
@@ -4917,7 +4930,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
-        <f>((B225*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>10.515999999999998</v>
       </c>
       <c r="B225" s="1">
@@ -4935,7 +4948,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
-        <f>((B226*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>10.718999999999998</v>
       </c>
       <c r="B226" s="1">
@@ -4953,7 +4966,7 @@
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
-        <f>((B227*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>10.922000000000001</v>
       </c>
       <c r="B227" s="1">
@@ -4971,7 +4984,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
-        <f>((B228*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>11.125</v>
       </c>
       <c r="B228" s="1">
@@ -4989,7 +5002,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
-        <f>((B229*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>11.328000000000003</v>
       </c>
       <c r="B229" s="1">
@@ -5007,7 +5020,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
-        <f>((B230*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>11.531000000000002</v>
       </c>
       <c r="B230" s="1">
@@ -5025,7 +5038,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
-        <f>((B231*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>11.734000000000002</v>
       </c>
       <c r="B231" s="1">
@@ -5043,7 +5056,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
-        <f>((B232*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>11.937000000000001</v>
       </c>
       <c r="B232" s="1">
@@ -5061,7 +5074,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
-        <f>((B233*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>12.125</v>
       </c>
       <c r="B233" s="1">
@@ -5079,7 +5092,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
-        <f>((B234*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>12.327999999999999</v>
       </c>
       <c r="B234" s="1">
@@ -5097,7 +5110,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235">
-        <f>((B235*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>12.531000000000002</v>
       </c>
       <c r="B235" s="1">
@@ -5115,7 +5128,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
-        <f>((B236*86400))-6.063</f>
+        <f t="shared" si="6"/>
         <v>12.734000000000002</v>
       </c>
       <c r="B236" s="1">
@@ -5133,7 +5146,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
-        <f>((B237*86400))-6.063</f>
+        <f t="shared" ref="A237:A300" si="7">((B237*86400))-6.063</f>
         <v>12.937000000000001</v>
       </c>
       <c r="B237" s="1">
@@ -5151,7 +5164,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
-        <f>((B238*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>13.141000000000002</v>
       </c>
       <c r="B238" s="1">
@@ -5169,7 +5182,7 @@
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
-        <f>((B239*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>13.344000000000001</v>
       </c>
       <c r="B239" s="1">
@@ -5187,7 +5200,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
-        <f>((B240*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>13.547000000000001</v>
       </c>
       <c r="B240" s="1">
@@ -5205,7 +5218,7 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
-        <f>((B241*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>13.75</v>
       </c>
       <c r="B241" s="1">
@@ -5223,7 +5236,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
-        <f>((B242*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>13.952999999999996</v>
       </c>
       <c r="B242" s="1">
@@ -5241,7 +5254,7 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
-        <f>((B243*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>14.156000000000002</v>
       </c>
       <c r="B243" s="1">
@@ -5259,7 +5272,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
-        <f>((B244*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>14.359000000000002</v>
       </c>
       <c r="B244" s="1">
@@ -5277,7 +5290,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
-        <f>((B245*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>14.562000000000001</v>
       </c>
       <c r="B245" s="1">
@@ -5295,7 +5308,7 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
-        <f>((B246*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>14.766000000000002</v>
       </c>
       <c r="B246" s="1">
@@ -5313,7 +5326,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247">
-        <f>((B247*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>14.969000000000001</v>
       </c>
       <c r="B247" s="1">
@@ -5331,7 +5344,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
-        <f>((B248*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>15.172000000000001</v>
       </c>
       <c r="B248" s="1">
@@ -5349,7 +5362,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
-        <f>((B249*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>15.375000000000004</v>
       </c>
       <c r="B249" s="1">
@@ -5367,7 +5380,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
-        <f>((B250*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>15.577999999999999</v>
       </c>
       <c r="B250" s="1">
@@ -5385,7 +5398,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
-        <f>((B251*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>15.766000000000002</v>
       </c>
       <c r="B251" s="1">
@@ -5403,7 +5416,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
-        <f>((B252*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>15.969000000000001</v>
       </c>
       <c r="B252" s="1">
@@ -5421,7 +5434,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
-        <f>((B253*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>16.171999999999997</v>
       </c>
       <c r="B253" s="1">
@@ -5439,7 +5452,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
-        <f>((B254*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>16.375000000000004</v>
       </c>
       <c r="B254" s="1">
@@ -5457,7 +5470,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
-        <f>((B255*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>16.577999999999996</v>
       </c>
       <c r="B255" s="1">
@@ -5475,7 +5488,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
-        <f>((B256*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>16.781000000000006</v>
       </c>
       <c r="B256" s="1">
@@ -5493,7 +5506,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
-        <f>((B257*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>16.984000000000002</v>
       </c>
       <c r="B257" s="1">
@@ -5511,7 +5524,7 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
-        <f>((B258*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>17.187000000000001</v>
       </c>
       <c r="B258" s="1">
@@ -5529,7 +5542,7 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259">
-        <f>((B259*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>17.391000000000002</v>
       </c>
       <c r="B259" s="1">
@@ -5547,7 +5560,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
-        <f>((B260*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>17.594000000000001</v>
       </c>
       <c r="B260" s="1">
@@ -5565,7 +5578,7 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
-        <f>((B261*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>17.797000000000001</v>
       </c>
       <c r="B261" s="1">
@@ -5583,7 +5596,7 @@
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
-        <f>((B262*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>18</v>
       </c>
       <c r="B262" s="1">
@@ -5601,7 +5614,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
-        <f>((B263*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>18.203000000000003</v>
       </c>
       <c r="B263" s="1">
@@ -5619,7 +5632,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
-        <f>((B264*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>18.406000000000002</v>
       </c>
       <c r="B264" s="1">
@@ -5637,7 +5650,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
-        <f>((B265*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>18.609000000000002</v>
       </c>
       <c r="B265" s="1">
@@ -5655,7 +5668,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
-        <f>((B266*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>18.812000000000001</v>
       </c>
       <c r="B266" s="1">
@@ -5673,7 +5686,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
-        <f>((B267*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>18.999999999999996</v>
       </c>
       <c r="B267" s="1">
@@ -5691,7 +5704,7 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
-        <f>((B268*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>19.202999999999999</v>
       </c>
       <c r="B268" s="1">
@@ -5709,7 +5722,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
-        <f>((B269*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>19.406000000000006</v>
       </c>
       <c r="B269" s="1">
@@ -5727,7 +5740,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
-        <f>((B270*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>19.609000000000005</v>
       </c>
       <c r="B270" s="1">
@@ -5745,7 +5758,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271">
-        <f>((B271*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>19.812000000000005</v>
       </c>
       <c r="B271" s="1">
@@ -5763,7 +5776,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
-        <f>((B272*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>20.016000000000002</v>
       </c>
       <c r="B272" s="1">
@@ -5781,7 +5794,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
-        <f>((B273*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>20.219000000000001</v>
       </c>
       <c r="B273" s="1">
@@ -5799,7 +5812,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
-        <f>((B274*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>20.422000000000001</v>
       </c>
       <c r="B274" s="1">
@@ -5817,7 +5830,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
-        <f>((B275*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>20.625</v>
       </c>
       <c r="B275" s="1">
@@ -5835,7 +5848,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
-        <f>((B276*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>20.827999999999999</v>
       </c>
       <c r="B276" s="1">
@@ -5853,7 +5866,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
-        <f>((B277*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>21.030999999999999</v>
       </c>
       <c r="B277" s="1">
@@ -5871,7 +5884,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
-        <f>((B278*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>21.234000000000005</v>
       </c>
       <c r="B278" s="1">
@@ -5889,7 +5902,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
-        <f>((B279*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>21.436999999999998</v>
       </c>
       <c r="B279" s="1">
@@ -5907,7 +5920,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
-        <f>((B280*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>21.641000000000002</v>
       </c>
       <c r="B280" s="1">
@@ -5925,7 +5938,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
-        <f>((B281*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>21.844000000000005</v>
       </c>
       <c r="B281" s="1">
@@ -5943,7 +5956,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
-        <f>((B282*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>22.047000000000001</v>
       </c>
       <c r="B282" s="1">
@@ -5961,7 +5974,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283">
-        <f>((B283*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>22.250000000000004</v>
       </c>
       <c r="B283" s="1">
@@ -5979,7 +5992,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284">
-        <f>((B284*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>22.452999999999996</v>
       </c>
       <c r="B284" s="1">
@@ -5997,7 +6010,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285">
-        <f>((B285*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>22.641000000000005</v>
       </c>
       <c r="B285" s="1">
@@ -6015,7 +6028,7 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286">
-        <f>((B286*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>22.844000000000005</v>
       </c>
       <c r="B286" s="1">
@@ -6033,7 +6046,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287">
-        <f>((B287*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>23.046999999999997</v>
       </c>
       <c r="B287" s="1">
@@ -6051,7 +6064,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288">
-        <f>((B288*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>23.250000000000004</v>
       </c>
       <c r="B288" s="1">
@@ -6069,7 +6082,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289">
-        <f>((B289*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>23.452999999999999</v>
       </c>
       <c r="B289" s="1">
@@ -6087,7 +6100,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290">
-        <f>((B290*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>23.656000000000002</v>
       </c>
       <c r="B290" s="1">
@@ -6105,7 +6118,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291">
-        <f>((B291*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>23.859000000000002</v>
       </c>
       <c r="B291" s="1">
@@ -6123,7 +6136,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292">
-        <f>((B292*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>24.062000000000001</v>
       </c>
       <c r="B292" s="1">
@@ -6141,7 +6154,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293">
-        <f>((B293*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>24.266000000000009</v>
       </c>
       <c r="B293" s="1">
@@ -6159,7 +6172,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294">
-        <f>((B294*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>24.469000000000001</v>
       </c>
       <c r="B294" s="1">
@@ -6177,7 +6190,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295">
-        <f>((B295*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>24.672000000000004</v>
       </c>
       <c r="B295" s="1">
@@ -6195,7 +6208,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296">
-        <f>((B296*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>24.875000000000004</v>
       </c>
       <c r="B296" s="1">
@@ -6213,7 +6226,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297">
-        <f>((B297*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>25.078000000000003</v>
       </c>
       <c r="B297" s="1">
@@ -6231,7 +6244,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298">
-        <f>((B298*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>25.281000000000002</v>
       </c>
       <c r="B298" s="1">
@@ -6249,7 +6262,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299">
-        <f>((B299*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>25.484000000000005</v>
       </c>
       <c r="B299" s="1">
@@ -6267,7 +6280,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300">
-        <f>((B300*86400))-6.063</f>
+        <f t="shared" si="7"/>
         <v>25.687000000000001</v>
       </c>
       <c r="B300" s="1">
@@ -6285,7 +6298,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301">
-        <f>((B301*86400))-6.063</f>
+        <f t="shared" ref="A301:A364" si="8">((B301*86400))-6.063</f>
         <v>25.890999999999998</v>
       </c>
       <c r="B301" s="1">
@@ -6303,7 +6316,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302">
-        <f>((B302*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>26.077999999999999</v>
       </c>
       <c r="B302" s="1">
@@ -6321,7 +6334,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303">
-        <f>((B303*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>26.281000000000002</v>
       </c>
       <c r="B303" s="1">
@@ -6339,7 +6352,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304">
-        <f>((B304*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>26.483999999999998</v>
       </c>
       <c r="B304" s="1">
@@ -6357,7 +6370,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305">
-        <f>((B305*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>26.687000000000001</v>
       </c>
       <c r="B305" s="1">
@@ -6375,7 +6388,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306">
-        <f>((B306*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>26.891000000000002</v>
       </c>
       <c r="B306" s="1">
@@ -6393,7 +6406,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307">
-        <f>((B307*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>27.093999999999998</v>
       </c>
       <c r="B307" s="1">
@@ -6411,7 +6424,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308">
-        <f>((B308*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>27.297000000000001</v>
       </c>
       <c r="B308" s="1">
@@ -6429,7 +6442,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309">
-        <f>((B309*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>27.500000000000004</v>
       </c>
       <c r="B309" s="1">
@@ -6447,7 +6460,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310">
-        <f>((B310*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>27.702999999999999</v>
       </c>
       <c r="B310" s="1">
@@ -6465,7 +6478,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311">
-        <f>((B311*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>27.906000000000002</v>
       </c>
       <c r="B311" s="1">
@@ -6483,7 +6496,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312">
-        <f>((B312*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>28.109000000000005</v>
       </c>
       <c r="B312" s="1">
@@ -6501,7 +6514,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313">
-        <f>((B313*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>28.312000000000001</v>
       </c>
       <c r="B313" s="1">
@@ -6519,7 +6532,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314">
-        <f>((B314*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>28.516000000000009</v>
       </c>
       <c r="B314" s="1">
@@ -6537,7 +6550,7 @@
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315">
-        <f>((B315*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>28.719000000000005</v>
       </c>
       <c r="B315" s="1">
@@ -6555,7 +6568,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316">
-        <f>((B316*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>28.921999999999993</v>
       </c>
       <c r="B316" s="1">
@@ -6573,7 +6586,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317">
-        <f>((B317*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>29.125000000000004</v>
       </c>
       <c r="B317" s="1">
@@ -6591,7 +6604,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318">
-        <f>((B318*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>29.312000000000001</v>
       </c>
       <c r="B318" s="1">
@@ -6609,7 +6622,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319">
-        <f>((B319*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>29.516000000000002</v>
       </c>
       <c r="B319" s="1">
@@ -6627,7 +6640,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320">
-        <f>((B320*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>29.718999999999998</v>
       </c>
       <c r="B320" s="1">
@@ -6645,7 +6658,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321">
-        <f>((B321*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>29.922000000000001</v>
       </c>
       <c r="B321" s="1">
@@ -6663,7 +6676,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322">
-        <f>((B322*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>30.125000000000004</v>
       </c>
       <c r="B322" s="1">
@@ -6681,7 +6694,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323">
-        <f>((B323*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>30.327999999999999</v>
       </c>
       <c r="B323" s="1">
@@ -6699,7 +6712,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324">
-        <f>((B324*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>30.531000000000002</v>
       </c>
       <c r="B324" s="1">
@@ -6717,7 +6730,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325">
-        <f>((B325*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>30.733999999999998</v>
       </c>
       <c r="B325" s="1">
@@ -6735,7 +6748,7 @@
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326">
-        <f>((B326*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>30.937000000000001</v>
       </c>
       <c r="B326" s="1">
@@ -6753,7 +6766,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327">
-        <f>((B327*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>31.141000000000002</v>
       </c>
       <c r="B327" s="1">
@@ -6771,7 +6784,7 @@
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328">
-        <f>((B328*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>31.343999999999991</v>
       </c>
       <c r="B328" s="1">
@@ -6789,7 +6802,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329">
-        <f>((B329*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>31.547000000000001</v>
       </c>
       <c r="B329" s="1">
@@ -6807,7 +6820,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330">
-        <f>((B330*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>31.750000000000011</v>
       </c>
       <c r="B330" s="1">
@@ -6825,7 +6838,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331">
-        <f>((B331*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>31.952999999999992</v>
       </c>
       <c r="B331" s="1">
@@ -6843,7 +6856,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332">
-        <f>((B332*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>32.155999999999999</v>
       </c>
       <c r="B332" s="1">
@@ -6861,7 +6874,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333">
-        <f>((B333*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>32.359000000000002</v>
       </c>
       <c r="B333" s="1">
@@ -6879,7 +6892,7 @@
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334">
-        <f>((B334*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>32.562000000000005</v>
       </c>
       <c r="B334" s="1">
@@ -6897,7 +6910,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335">
-        <f>((B335*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>32.75</v>
       </c>
       <c r="B335" s="1">
@@ -6915,7 +6928,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336">
-        <f>((B336*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>32.952999999999996</v>
       </c>
       <c r="B336" s="1">
@@ -6933,7 +6946,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337">
-        <f>((B337*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>33.155999999999999</v>
       </c>
       <c r="B337" s="1">
@@ -6951,7 +6964,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338">
-        <f>((B338*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>33.358999999999995</v>
       </c>
       <c r="B338" s="1">
@@ -6969,7 +6982,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339">
-        <f>((B339*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>33.561999999999998</v>
       </c>
       <c r="B339" s="1">
@@ -6987,7 +7000,7 @@
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340">
-        <f>((B340*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>33.766000000000005</v>
       </c>
       <c r="B340" s="1">
@@ -7005,7 +7018,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341">
-        <f>((B341*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>33.968999999999987</v>
       </c>
       <c r="B341" s="1">
@@ -7023,7 +7036,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342">
-        <f>((B342*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>34.171999999999997</v>
       </c>
       <c r="B342" s="1">
@@ -7041,7 +7054,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343">
-        <f>((B343*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>34.375</v>
       </c>
       <c r="B343" s="1">
@@ -7059,7 +7072,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344">
-        <f>((B344*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>34.577999999999996</v>
       </c>
       <c r="B344" s="1">
@@ -7077,7 +7090,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345">
-        <f>((B345*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>34.780999999999999</v>
       </c>
       <c r="B345" s="1">
@@ -7095,7 +7108,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346">
-        <f>((B346*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>34.983999999999995</v>
       </c>
       <c r="B346" s="1">
@@ -7113,7 +7126,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347">
-        <f>((B347*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>35.186999999999998</v>
       </c>
       <c r="B347" s="1">
@@ -7131,7 +7144,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348">
-        <f>((B348*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>35.390999999999991</v>
       </c>
       <c r="B348" s="1">
@@ -7149,7 +7162,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349">
-        <f>((B349*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>35.593999999999994</v>
       </c>
       <c r="B349" s="1">
@@ -7167,7 +7180,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350">
-        <f>((B350*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>35.79699999999999</v>
       </c>
       <c r="B350" s="1">
@@ -7185,7 +7198,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351">
-        <f>((B351*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>36</v>
       </c>
       <c r="B351" s="1">
@@ -7203,7 +7216,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352">
-        <f>((B352*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>36.202999999999996</v>
       </c>
       <c r="B352" s="1">
@@ -7221,7 +7234,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353">
-        <f>((B353*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>36.405999999999999</v>
       </c>
       <c r="B353" s="1">
@@ -7239,7 +7252,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354">
-        <f>((B354*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>36.593999999999994</v>
       </c>
       <c r="B354" s="1">
@@ -7257,7 +7270,7 @@
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355">
-        <f>((B355*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>36.796999999999997</v>
       </c>
       <c r="B355" s="1">
@@ -7275,7 +7288,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356">
-        <f>((B356*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>37</v>
       </c>
       <c r="B356" s="1">
@@ -7293,7 +7306,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357">
-        <f>((B357*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>37.202999999999989</v>
       </c>
       <c r="B357" s="1">
@@ -7311,7 +7324,7 @@
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358">
-        <f>((B358*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>37.405999999999999</v>
       </c>
       <c r="B358" s="1">
@@ -7329,7 +7342,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359">
-        <f>((B359*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>37.609000000000002</v>
       </c>
       <c r="B359" s="1">
@@ -7347,7 +7360,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360">
-        <f>((B360*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>37.811999999999991</v>
       </c>
       <c r="B360" s="1">
@@ -7365,7 +7378,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361">
-        <f>((B361*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>38.015999999999998</v>
       </c>
       <c r="B361" s="1">
@@ -7383,7 +7396,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362">
-        <f>((B362*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>38.218999999999994</v>
       </c>
       <c r="B362" s="1">
@@ -7401,7 +7414,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363">
-        <f>((B363*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>38.421999999999997</v>
       </c>
       <c r="B363" s="1">
@@ -7419,7 +7432,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364">
-        <f>((B364*86400))-6.063</f>
+        <f t="shared" si="8"/>
         <v>38.624999999999993</v>
       </c>
       <c r="B364" s="1">
@@ -7437,7 +7450,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365">
-        <f>((B365*86400))-6.063</f>
+        <f t="shared" ref="A365:A428" si="9">((B365*86400))-6.063</f>
         <v>38.827999999999996</v>
       </c>
       <c r="B365" s="1">
@@ -7455,7 +7468,7 @@
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366">
-        <f>((B366*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>39.030999999999992</v>
       </c>
       <c r="B366" s="1">
@@ -7473,7 +7486,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367">
-        <f>((B367*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>39.233999999999995</v>
       </c>
       <c r="B367" s="1">
@@ -7491,7 +7504,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368">
-        <f>((B368*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>39.436999999999991</v>
       </c>
       <c r="B368" s="1">
@@ -7509,7 +7522,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369">
-        <f>((B369*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>39.640999999999998</v>
       </c>
       <c r="B369" s="1">
@@ -7527,7 +7540,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370">
-        <f>((B370*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>39.843999999999994</v>
       </c>
       <c r="B370" s="1">
@@ -7545,7 +7558,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371">
-        <f>((B371*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>40.046999999999997</v>
       </c>
       <c r="B371" s="1">
@@ -7563,7 +7576,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372">
-        <f>((B372*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>40.25</v>
       </c>
       <c r="B372" s="1">
@@ -7581,7 +7594,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373">
-        <f>((B373*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>40.452999999999996</v>
       </c>
       <c r="B373" s="1">
@@ -7599,7 +7612,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374">
-        <f>((B374*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>40.655999999999999</v>
       </c>
       <c r="B374" s="1">
@@ -7617,7 +7630,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375">
-        <f>((B375*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>40.843999999999994</v>
       </c>
       <c r="B375" s="1">
@@ -7635,7 +7648,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376">
-        <f>((B376*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>41.046999999999997</v>
       </c>
       <c r="B376" s="1">
@@ -7653,7 +7666,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377">
-        <f>((B377*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>41.25</v>
       </c>
       <c r="B377" s="1">
@@ -7671,7 +7684,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378">
-        <f>((B378*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>41.452999999999996</v>
       </c>
       <c r="B378" s="1">
@@ -7689,7 +7702,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379">
-        <f>((B379*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>41.655999999999992</v>
       </c>
       <c r="B379" s="1">
@@ -7707,7 +7720,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380">
-        <f>((B380*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>41.858999999999995</v>
       </c>
       <c r="B380" s="1">
@@ -7725,7 +7738,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381">
-        <f>((B381*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>42.062000000000005</v>
       </c>
       <c r="B381" s="1">
@@ -7743,7 +7756,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382">
-        <f>((B382*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>42.265999999999998</v>
       </c>
       <c r="B382" s="1">
@@ -7761,7 +7774,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383">
-        <f>((B383*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>42.469000000000001</v>
       </c>
       <c r="B383" s="1">
@@ -7779,7 +7792,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384">
-        <f>((B384*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>42.671999999999997</v>
       </c>
       <c r="B384" s="1">
@@ -7797,7 +7810,7 @@
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385">
-        <f>((B385*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>42.875</v>
       </c>
       <c r="B385" s="1">
@@ -7815,7 +7828,7 @@
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386">
-        <f>((B386*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>43.077999999999996</v>
       </c>
       <c r="B386" s="1">
@@ -7833,7 +7846,7 @@
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387">
-        <f>((B387*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>43.280999999999999</v>
       </c>
       <c r="B387" s="1">
@@ -7851,7 +7864,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388">
-        <f>((B388*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>43.483999999999995</v>
       </c>
       <c r="B388" s="1">
@@ -7869,7 +7882,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389">
-        <f>((B389*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>43.686999999999998</v>
       </c>
       <c r="B389" s="1">
@@ -7887,7 +7900,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390">
-        <f>((B390*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>43.891000000000005</v>
       </c>
       <c r="B390" s="1">
@@ -7905,7 +7918,7 @@
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391">
-        <f>((B391*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>44.093999999999994</v>
       </c>
       <c r="B391" s="1">
@@ -7923,7 +7936,7 @@
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392">
-        <f>((B392*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>44.297000000000004</v>
       </c>
       <c r="B392" s="1">
@@ -7941,7 +7954,7 @@
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393">
-        <f>((B393*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>44.5</v>
       </c>
       <c r="B393" s="1">
@@ -7959,7 +7972,7 @@
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394">
-        <f>((B394*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>44.703000000000003</v>
       </c>
       <c r="B394" s="1">
@@ -7977,7 +7990,7 @@
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395">
-        <f>((B395*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>44.905999999999999</v>
       </c>
       <c r="B395" s="1">
@@ -7995,7 +8008,7 @@
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396">
-        <f>((B396*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>45.093999999999994</v>
       </c>
       <c r="B396" s="1">
@@ -8013,7 +8026,7 @@
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397">
-        <f>((B397*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>45.296999999999997</v>
       </c>
       <c r="B397" s="1">
@@ -8031,7 +8044,7 @@
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398">
-        <f>((B398*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>45.499999999999993</v>
       </c>
       <c r="B398" s="1">
@@ -8049,7 +8062,7 @@
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399">
-        <f>((B399*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>45.702999999999996</v>
       </c>
       <c r="B399" s="1">
@@ -8067,7 +8080,7 @@
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400">
-        <f>((B400*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>45.905999999999992</v>
       </c>
       <c r="B400" s="1">
@@ -8085,7 +8098,7 @@
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401">
-        <f>((B401*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>46.108999999999995</v>
       </c>
       <c r="B401" s="1">
@@ -8103,7 +8116,7 @@
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402">
-        <f>((B402*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>46.311999999999998</v>
       </c>
       <c r="B402" s="1">
@@ -8121,7 +8134,7 @@
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403">
-        <f>((B403*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>46.515999999999998</v>
       </c>
       <c r="B403" s="1">
@@ -8139,7 +8152,7 @@
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404">
-        <f>((B404*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>46.718999999999994</v>
       </c>
       <c r="B404" s="1">
@@ -8157,7 +8170,7 @@
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405">
-        <f>((B405*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>46.921999999999997</v>
       </c>
       <c r="B405" s="1">
@@ -8175,7 +8188,7 @@
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406">
-        <f>((B406*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>47.125</v>
       </c>
       <c r="B406" s="1">
@@ -8193,7 +8206,7 @@
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407">
-        <f>((B407*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>47.327999999999989</v>
       </c>
       <c r="B407" s="1">
@@ -8211,7 +8224,7 @@
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408">
-        <f>((B408*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>47.530999999999999</v>
       </c>
       <c r="B408" s="1">
@@ -8229,7 +8242,7 @@
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409">
-        <f>((B409*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>47.734000000000002</v>
       </c>
       <c r="B409" s="1">
@@ -8247,7 +8260,7 @@
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410">
-        <f>((B410*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>47.936999999999998</v>
       </c>
       <c r="B410" s="1">
@@ -8265,7 +8278,7 @@
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411">
-        <f>((B411*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>48.140999999999998</v>
       </c>
       <c r="B411" s="1">
@@ -8283,7 +8296,7 @@
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412">
-        <f>((B412*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>48.343999999999994</v>
       </c>
       <c r="B412" s="1">
@@ -8301,7 +8314,7 @@
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413">
-        <f>((B413*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>48.547000000000004</v>
       </c>
       <c r="B413" s="1">
@@ -8319,7 +8332,7 @@
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414">
-        <f>((B414*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>48.750000000000007</v>
       </c>
       <c r="B414" s="1">
@@ -8337,7 +8350,7 @@
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415">
-        <f>((B415*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>48.936999999999991</v>
       </c>
       <c r="B415" s="1">
@@ -8355,7 +8368,7 @@
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416">
-        <f>((B416*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>49.140999999999998</v>
       </c>
       <c r="B416" s="1">
@@ -8373,7 +8386,7 @@
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417">
-        <f>((B417*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>49.344000000000001</v>
       </c>
       <c r="B417" s="1">
@@ -8391,7 +8404,7 @@
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418">
-        <f>((B418*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>49.546999999999997</v>
       </c>
       <c r="B418" s="1">
@@ -8409,7 +8422,7 @@
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419">
-        <f>((B419*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>49.75</v>
       </c>
       <c r="B419" s="1">
@@ -8427,7 +8440,7 @@
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420">
-        <f>((B420*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>49.952999999999996</v>
       </c>
       <c r="B420" s="1">
@@ -8445,7 +8458,7 @@
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421">
-        <f>((B421*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>50.155999999999999</v>
       </c>
       <c r="B421" s="1">
@@ -8463,7 +8476,7 @@
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422">
-        <f>((B422*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>50.358999999999988</v>
       </c>
       <c r="B422" s="1">
@@ -8481,7 +8494,7 @@
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423">
-        <f>((B423*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>50.561999999999998</v>
       </c>
       <c r="B423" s="1">
@@ -8499,7 +8512,7 @@
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424">
-        <f>((B424*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>50.766000000000005</v>
       </c>
       <c r="B424" s="1">
@@ -8517,7 +8530,7 @@
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425">
-        <f>((B425*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>50.968999999999987</v>
       </c>
       <c r="B425" s="1">
@@ -8535,7 +8548,7 @@
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426">
-        <f>((B426*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>51.17199999999999</v>
       </c>
       <c r="B426" s="1">
@@ -8553,7 +8566,7 @@
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427">
-        <f>((B427*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>51.375</v>
       </c>
       <c r="B427" s="1">
@@ -8571,7 +8584,7 @@
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428">
-        <f>((B428*86400))-6.063</f>
+        <f t="shared" si="9"/>
         <v>51.577999999999996</v>
       </c>
       <c r="B428" s="1">
@@ -8589,7 +8602,7 @@
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429">
-        <f>((B429*86400))-6.063</f>
+        <f t="shared" ref="A429:A492" si="10">((B429*86400))-6.063</f>
         <v>51.780999999999999</v>
       </c>
       <c r="B429" s="1">
@@ -8607,7 +8620,7 @@
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430">
-        <f>((B430*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>51.983999999999995</v>
       </c>
       <c r="B430" s="1">
@@ -8625,7 +8638,7 @@
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431">
-        <f>((B431*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>52.186999999999998</v>
       </c>
       <c r="B431" s="1">
@@ -8643,7 +8656,7 @@
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432">
-        <f>((B432*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>52.390999999999998</v>
       </c>
       <c r="B432" s="1">
@@ -8661,7 +8674,7 @@
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433">
-        <f>((B433*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>52.577999999999996</v>
       </c>
       <c r="B433" s="1">
@@ -8679,7 +8692,7 @@
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434">
-        <f>((B434*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>52.780999999999999</v>
       </c>
       <c r="B434" s="1">
@@ -8697,7 +8710,7 @@
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435">
-        <f>((B435*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>52.983999999999995</v>
       </c>
       <c r="B435" s="1">
@@ -8715,7 +8728,7 @@
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436">
-        <f>((B436*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>53.187000000000005</v>
       </c>
       <c r="B436" s="1">
@@ -8733,7 +8746,7 @@
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437">
-        <f>((B437*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>53.390999999999991</v>
       </c>
       <c r="B437" s="1">
@@ -8751,7 +8764,7 @@
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438">
-        <f>((B438*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>53.594000000000001</v>
       </c>
       <c r="B438" s="1">
@@ -8769,7 +8782,7 @@
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439">
-        <f>((B439*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>53.797000000000004</v>
       </c>
       <c r="B439" s="1">
@@ -8787,7 +8800,7 @@
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440">
-        <f>((B440*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
       <c r="B440" s="1">
@@ -8805,7 +8818,7 @@
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441">
-        <f>((B441*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>54.202999999999989</v>
       </c>
       <c r="B441" s="1">
@@ -8823,7 +8836,7 @@
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442">
-        <f>((B442*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>54.405999999999999</v>
       </c>
       <c r="B442" s="1">
@@ -8841,7 +8854,7 @@
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443">
-        <f>((B443*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>54.609000000000002</v>
       </c>
       <c r="B443" s="1">
@@ -8859,7 +8872,7 @@
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444">
-        <f>((B444*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>54.811999999999998</v>
       </c>
       <c r="B444" s="1">
@@ -8877,7 +8890,7 @@
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445">
-        <f>((B445*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>55.015999999999998</v>
       </c>
       <c r="B445" s="1">
@@ -8895,7 +8908,7 @@
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446">
-        <f>((B446*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>55.219000000000008</v>
       </c>
       <c r="B446" s="1">
@@ -8913,7 +8926,7 @@
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447">
-        <f>((B447*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>55.421999999999997</v>
       </c>
       <c r="B447" s="1">
@@ -8931,7 +8944,7 @@
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448">
-        <f>((B448*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>55.625000000000007</v>
       </c>
       <c r="B448" s="1">
@@ -8949,7 +8962,7 @@
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449">
-        <f>((B449*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>55.827999999999996</v>
       </c>
       <c r="B449" s="1">
@@ -8967,7 +8980,7 @@
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450">
-        <f>((B450*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>56.030999999999985</v>
       </c>
       <c r="B450" s="1">
@@ -8985,7 +8998,7 @@
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451">
-        <f>((B451*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>56.233999999999995</v>
       </c>
       <c r="B451" s="1">
@@ -9003,7 +9016,7 @@
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452">
-        <f>((B452*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>56.437000000000005</v>
       </c>
       <c r="B452" s="1">
@@ -9021,7 +9034,7 @@
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453">
-        <f>((B453*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>56.640999999999991</v>
       </c>
       <c r="B453" s="1">
@@ -9039,7 +9052,7 @@
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454">
-        <f>((B454*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>56.827999999999989</v>
       </c>
       <c r="B454" s="1">
@@ -9057,7 +9070,7 @@
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455">
-        <f>((B455*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>57.031000000000006</v>
       </c>
       <c r="B455" s="1">
@@ -9075,7 +9088,7 @@
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456">
-        <f>((B456*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>57.233999999999995</v>
       </c>
       <c r="B456" s="1">
@@ -9093,7 +9106,7 @@
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457">
-        <f>((B457*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>57.436999999999998</v>
       </c>
       <c r="B457" s="1">
@@ -9111,7 +9124,7 @@
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458">
-        <f>((B458*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>57.641000000000005</v>
       </c>
       <c r="B458" s="1">
@@ -9129,7 +9142,7 @@
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459">
-        <f>((B459*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>57.844000000000001</v>
       </c>
       <c r="B459" s="1">
@@ -9147,7 +9160,7 @@
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460">
-        <f>((B460*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>58.046999999999997</v>
       </c>
       <c r="B460" s="1">
@@ -9165,7 +9178,7 @@
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461">
-        <f>((B461*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>58.25</v>
       </c>
       <c r="B461" s="1">
@@ -9183,7 +9196,7 @@
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462">
-        <f>((B462*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>58.452999999999989</v>
       </c>
       <c r="B462" s="1">
@@ -9201,7 +9214,7 @@
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463">
-        <f>((B463*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>58.656000000000006</v>
       </c>
       <c r="B463" s="1">
@@ -9219,7 +9232,7 @@
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464">
-        <f>((B464*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>58.859000000000009</v>
       </c>
       <c r="B464" s="1">
@@ -9237,7 +9250,7 @@
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465">
-        <f>((B465*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>59.061999999999998</v>
       </c>
       <c r="B465" s="1">
@@ -9255,7 +9268,7 @@
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466">
-        <f>((B466*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>59.266000000000005</v>
       </c>
       <c r="B466" s="1">
@@ -9273,7 +9286,7 @@
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467">
-        <f>((B467*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>59.469000000000008</v>
       </c>
       <c r="B467" s="1">
@@ -9291,7 +9304,7 @@
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468">
-        <f>((B468*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>59.671999999999997</v>
       </c>
       <c r="B468" s="1">
@@ -9309,7 +9322,7 @@
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469">
-        <f>((B469*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>59.874999999999986</v>
       </c>
       <c r="B469" s="1">
@@ -9327,7 +9340,7 @@
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470">
-        <f>((B470*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>60.078000000000003</v>
       </c>
       <c r="B470" s="1">
@@ -9345,7 +9358,7 @@
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471">
-        <f>((B471*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>60.280999999999992</v>
       </c>
       <c r="B471" s="1">
@@ -9363,7 +9376,7 @@
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472">
-        <f>((B472*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>60.483999999999995</v>
       </c>
       <c r="B472" s="1">
@@ -9381,7 +9394,7 @@
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473">
-        <f>((B473*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>60.671999999999997</v>
       </c>
       <c r="B473" s="1">
@@ -9399,7 +9412,7 @@
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474">
-        <f>((B474*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>60.875</v>
       </c>
       <c r="B474" s="1">
@@ -9417,7 +9430,7 @@
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475">
-        <f>((B475*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>61.078000000000003</v>
       </c>
       <c r="B475" s="1">
@@ -9435,7 +9448,7 @@
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476">
-        <f>((B476*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>61.281000000000006</v>
       </c>
       <c r="B476" s="1">
@@ -9453,7 +9466,7 @@
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477">
-        <f>((B477*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>61.483999999999995</v>
       </c>
       <c r="B477" s="1">
@@ -9471,7 +9484,7 @@
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478">
-        <f>((B478*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>61.686999999999998</v>
       </c>
       <c r="B478" s="1">
@@ -9489,7 +9502,7 @@
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479">
-        <f>((B479*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>61.890999999999991</v>
       </c>
       <c r="B479" s="1">
@@ -9507,7 +9520,7 @@
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480">
-        <f>((B480*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>62.094000000000008</v>
       </c>
       <c r="B480" s="1">
@@ -9525,7 +9538,7 @@
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481">
-        <f>((B481*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>62.296999999999997</v>
       </c>
       <c r="B481" s="1">
@@ -9543,7 +9556,7 @@
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482">
-        <f>((B482*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>62.499999999999986</v>
       </c>
       <c r="B482" s="1">
@@ -9561,7 +9574,7 @@
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483">
-        <f>((B483*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>62.703000000000003</v>
       </c>
       <c r="B483" s="1">
@@ -9579,7 +9592,7 @@
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484">
-        <f>((B484*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>62.906000000000006</v>
       </c>
       <c r="B484" s="1">
@@ -9597,7 +9610,7 @@
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485">
-        <f>((B485*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>63.108999999999995</v>
       </c>
       <c r="B485" s="1">
@@ -9615,7 +9628,7 @@
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486">
-        <f>((B486*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>63.311999999999998</v>
       </c>
       <c r="B486" s="1">
@@ -9633,7 +9646,7 @@
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487">
-        <f>((B487*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>63.516000000000005</v>
       </c>
       <c r="B487" s="1">
@@ -9651,7 +9664,7 @@
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488">
-        <f>((B488*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>63.718999999999994</v>
       </c>
       <c r="B488" s="1">
@@ -9669,7 +9682,7 @@
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489">
-        <f>((B489*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>63.921999999999997</v>
       </c>
       <c r="B489" s="1">
@@ -9687,7 +9700,7 @@
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490">
-        <f>((B490*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>64.124999999999986</v>
       </c>
       <c r="B490" s="1">
@@ -9705,7 +9718,7 @@
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491">
-        <f>((B491*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>64.327999999999989</v>
       </c>
       <c r="B491" s="1">
@@ -9723,7 +9736,7 @@
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492">
-        <f>((B492*86400))-6.063</f>
+        <f t="shared" si="10"/>
         <v>64.530999999999992</v>
       </c>
       <c r="B492" s="1">
@@ -9741,7 +9754,7 @@
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493">
-        <f>((B493*86400))-6.063</f>
+        <f t="shared" ref="A493:A556" si="11">((B493*86400))-6.063</f>
         <v>64.733999999999995</v>
       </c>
       <c r="B493" s="1">
@@ -9759,7 +9772,7 @@
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494">
-        <f>((B494*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>64.921999999999997</v>
       </c>
       <c r="B494" s="1">
@@ -9777,7 +9790,7 @@
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495">
-        <f>((B495*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>65.124999999999986</v>
       </c>
       <c r="B495" s="1">
@@ -9795,7 +9808,7 @@
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496">
-        <f>((B496*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>65.328000000000003</v>
       </c>
       <c r="B496" s="1">
@@ -9813,7 +9826,7 @@
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497">
-        <f>((B497*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>65.531000000000006</v>
       </c>
       <c r="B497" s="1">
@@ -9831,7 +9844,7 @@
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498">
-        <f>((B498*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>65.733999999999995</v>
       </c>
       <c r="B498" s="1">
@@ -9849,7 +9862,7 @@
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499">
-        <f>((B499*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>65.936999999999998</v>
       </c>
       <c r="B499" s="1">
@@ -9867,7 +9880,7 @@
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500">
-        <f>((B500*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>66.141000000000005</v>
       </c>
       <c r="B500" s="1">
@@ -9885,7 +9898,7 @@
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501">
-        <f>((B501*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>66.343999999999994</v>
       </c>
       <c r="B501" s="1">
@@ -9903,7 +9916,7 @@
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502">
-        <f>((B502*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>66.546999999999997</v>
       </c>
       <c r="B502" s="1">
@@ -9921,7 +9934,7 @@
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503">
-        <f>((B503*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>66.750000000000014</v>
       </c>
       <c r="B503" s="1">
@@ -9939,7 +9952,7 @@
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504">
-        <f>((B504*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>66.953000000000003</v>
       </c>
       <c r="B504" s="1">
@@ -9957,7 +9970,7 @@
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505">
-        <f>((B505*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>67.156000000000006</v>
       </c>
       <c r="B505" s="1">
@@ -9975,7 +9988,7 @@
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506">
-        <f>((B506*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>67.358999999999995</v>
       </c>
       <c r="B506" s="1">
@@ -9993,7 +10006,7 @@
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507">
-        <f>((B507*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>67.561999999999983</v>
       </c>
       <c r="B507" s="1">
@@ -10011,7 +10024,7 @@
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508">
-        <f>((B508*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>67.766000000000005</v>
       </c>
       <c r="B508" s="1">
@@ -10029,7 +10042,7 @@
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509">
-        <f>((B509*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>67.968999999999994</v>
       </c>
       <c r="B509" s="1">
@@ -10047,7 +10060,7 @@
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510">
-        <f>((B510*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>68.171999999999997</v>
       </c>
       <c r="B510" s="1">
@@ -10065,7 +10078,7 @@
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511">
-        <f>((B511*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>68.375</v>
       </c>
       <c r="B511" s="1">
@@ -10083,7 +10096,7 @@
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512">
-        <f>((B512*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>68.577999999999989</v>
       </c>
       <c r="B512" s="1">
@@ -10101,7 +10114,7 @@
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513">
-        <f>((B513*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>68.780999999999992</v>
       </c>
       <c r="B513" s="1">
@@ -10119,7 +10132,7 @@
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514">
-        <f>((B514*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>68.968999999999994</v>
       </c>
       <c r="B514" s="1">
@@ -10137,7 +10150,7 @@
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515">
-        <f>((B515*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>69.171999999999997</v>
       </c>
       <c r="B515" s="1">
@@ -10155,7 +10168,7 @@
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516">
-        <f>((B516*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>69.375</v>
       </c>
       <c r="B516" s="1">
@@ -10173,7 +10186,7 @@
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517">
-        <f>((B517*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>69.578000000000003</v>
       </c>
       <c r="B517" s="1">
@@ -10191,7 +10204,7 @@
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518">
-        <f>((B518*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>69.781000000000006</v>
       </c>
       <c r="B518" s="1">
@@ -10209,7 +10222,7 @@
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519">
-        <f>((B519*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>69.983999999999995</v>
       </c>
       <c r="B519" s="1">
@@ -10227,7 +10240,7 @@
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520">
-        <f>((B520*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>70.186999999999983</v>
       </c>
       <c r="B520" s="1">
@@ -10245,7 +10258,7 @@
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521">
-        <f>((B521*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>70.391000000000005</v>
       </c>
       <c r="B521" s="1">
@@ -10263,7 +10276,7 @@
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522">
-        <f>((B522*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>70.593999999999994</v>
       </c>
       <c r="B522" s="1">
@@ -10281,7 +10294,7 @@
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523">
-        <f>((B523*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>70.796999999999997</v>
       </c>
       <c r="B523" s="1">
@@ -10299,7 +10312,7 @@
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524">
-        <f>((B524*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>71.000000000000014</v>
       </c>
       <c r="B524" s="1">
@@ -10317,7 +10330,7 @@
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525">
-        <f>((B525*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>71.203000000000003</v>
       </c>
       <c r="B525" s="1">
@@ -10335,7 +10348,7 @@
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526">
-        <f>((B526*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>71.405999999999992</v>
       </c>
       <c r="B526" s="1">
@@ -10353,7 +10366,7 @@
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527">
-        <f>((B527*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>71.608999999999995</v>
       </c>
       <c r="B527" s="1">
@@ -10371,7 +10384,7 @@
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528">
-        <f>((B528*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>71.811999999999983</v>
       </c>
       <c r="B528" s="1">
@@ -10389,7 +10402,7 @@
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529">
-        <f>((B529*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>72.015999999999991</v>
       </c>
       <c r="B529" s="1">
@@ -10407,7 +10420,7 @@
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530">
-        <f>((B530*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>72.218999999999994</v>
       </c>
       <c r="B530" s="1">
@@ -10425,7 +10438,7 @@
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531">
-        <f>((B531*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>72.421999999999997</v>
       </c>
       <c r="B531" s="1">
@@ -10443,7 +10456,7 @@
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532">
-        <f>((B532*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>72.624999999999986</v>
       </c>
       <c r="B532" s="1">
@@ -10461,7 +10474,7 @@
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533">
-        <f>((B533*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>72.827999999999989</v>
       </c>
       <c r="B533" s="1">
@@ -10479,7 +10492,7 @@
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534">
-        <f>((B534*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>73.016000000000005</v>
       </c>
       <c r="B534" s="1">
@@ -10497,7 +10510,7 @@
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535">
-        <f>((B535*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>73.218999999999994</v>
       </c>
       <c r="B535" s="1">
@@ -10515,7 +10528,7 @@
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536">
-        <f>((B536*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>73.421999999999983</v>
       </c>
       <c r="B536" s="1">
@@ -10533,7 +10546,7 @@
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537">
-        <f>((B537*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>73.625000000000014</v>
       </c>
       <c r="B537" s="1">
@@ -10551,7 +10564,7 @@
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538">
-        <f>((B538*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>73.828000000000003</v>
       </c>
       <c r="B538" s="1">
@@ -10569,7 +10582,7 @@
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539">
-        <f>((B539*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>74.030999999999992</v>
       </c>
       <c r="B539" s="1">
@@ -10587,7 +10600,7 @@
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540">
-        <f>((B540*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>74.233999999999995</v>
       </c>
       <c r="B540" s="1">
@@ -10605,7 +10618,7 @@
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541">
-        <f>((B541*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>74.437000000000012</v>
       </c>
       <c r="B541" s="1">
@@ -10623,7 +10636,7 @@
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542">
-        <f>((B542*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>74.640999999999991</v>
       </c>
       <c r="B542" s="1">
@@ -10641,7 +10654,7 @@
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543">
-        <f>((B543*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>74.843999999999994</v>
       </c>
       <c r="B543" s="1">
@@ -10659,7 +10672,7 @@
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544">
-        <f>((B544*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>75.046999999999997</v>
       </c>
       <c r="B544" s="1">
@@ -10677,7 +10690,7 @@
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545">
-        <f>((B545*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>75.25</v>
       </c>
       <c r="B545" s="1">
@@ -10695,7 +10708,7 @@
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546">
-        <f>((B546*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>75.453000000000003</v>
       </c>
       <c r="B546" s="1">
@@ -10713,7 +10726,7 @@
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547">
-        <f>((B547*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>75.655999999999992</v>
       </c>
       <c r="B547" s="1">
@@ -10731,7 +10744,7 @@
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548">
-        <f>((B548*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>75.858999999999995</v>
       </c>
       <c r="B548" s="1">
@@ -10749,7 +10762,7 @@
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549">
-        <f>((B549*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>76.061999999999998</v>
       </c>
       <c r="B549" s="1">
@@ -10767,7 +10780,7 @@
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550">
-        <f>((B550*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>76.266000000000005</v>
       </c>
       <c r="B550" s="1">
@@ -10785,7 +10798,7 @@
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551">
-        <f>((B551*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>76.468999999999994</v>
       </c>
       <c r="B551" s="1">
@@ -10803,7 +10816,7 @@
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552">
-        <f>((B552*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>76.671999999999997</v>
       </c>
       <c r="B552" s="1">
@@ -10821,7 +10834,7 @@
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553">
-        <f>((B553*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>76.874999999999986</v>
       </c>
       <c r="B553" s="1">
@@ -10839,7 +10852,7 @@
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554">
-        <f>((B554*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>77.078000000000003</v>
       </c>
       <c r="B554" s="1">
@@ -10857,7 +10870,7 @@
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555">
-        <f>((B555*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>77.265999999999991</v>
       </c>
       <c r="B555" s="1">
@@ -10875,7 +10888,7 @@
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556">
-        <f>((B556*86400))-6.063</f>
+        <f t="shared" si="11"/>
         <v>77.468999999999994</v>
       </c>
       <c r="B556" s="1">
@@ -10893,7 +10906,7 @@
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557">
-        <f>((B557*86400))-6.063</f>
+        <f t="shared" ref="A557:A620" si="12">((B557*86400))-6.063</f>
         <v>77.671999999999997</v>
       </c>
       <c r="B557" s="1">
@@ -10911,7 +10924,7 @@
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558">
-        <f>((B558*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>77.874999999999986</v>
       </c>
       <c r="B558" s="1">
@@ -10929,7 +10942,7 @@
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559">
-        <f>((B559*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>78.078000000000003</v>
       </c>
       <c r="B559" s="1">
@@ -10947,7 +10960,7 @@
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560">
-        <f>((B560*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>78.280999999999992</v>
       </c>
       <c r="B560" s="1">
@@ -10965,7 +10978,7 @@
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561">
-        <f>((B561*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>78.483999999999995</v>
       </c>
       <c r="B561" s="1">
@@ -10983,7 +10996,7 @@
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562">
-        <f>((B562*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>78.686999999999998</v>
       </c>
       <c r="B562" s="1">
@@ -11001,7 +11014,7 @@
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563">
-        <f>((B563*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>78.890999999999991</v>
       </c>
       <c r="B563" s="1">
@@ -11019,7 +11032,7 @@
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564">
-        <f>((B564*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>79.094000000000008</v>
       </c>
       <c r="B564" s="1">
@@ -11037,7 +11050,7 @@
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565">
-        <f>((B565*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>79.297000000000011</v>
       </c>
       <c r="B565" s="1">
@@ -11055,7 +11068,7 @@
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566">
-        <f>((B566*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>79.5</v>
       </c>
       <c r="B566" s="1">
@@ -11073,7 +11086,7 @@
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567">
-        <f>((B567*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>79.702999999999989</v>
       </c>
       <c r="B567" s="1">
@@ -11091,7 +11104,7 @@
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568">
-        <f>((B568*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>79.906000000000006</v>
       </c>
       <c r="B568" s="1">
@@ -11109,7 +11122,7 @@
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569">
-        <f>((B569*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>80.10899999999998</v>
       </c>
       <c r="B569" s="1">
@@ -11127,7 +11140,7 @@
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570">
-        <f>((B570*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>80.311999999999983</v>
       </c>
       <c r="B570" s="1">
@@ -11145,7 +11158,7 @@
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571">
-        <f>((B571*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>80.515999999999991</v>
       </c>
       <c r="B571" s="1">
@@ -11163,7 +11176,7 @@
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572">
-        <f>((B572*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>80.718999999999994</v>
       </c>
       <c r="B572" s="1">
@@ -11181,7 +11194,7 @@
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573">
-        <f>((B573*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>80.921999999999997</v>
       </c>
       <c r="B573" s="1">
@@ -11199,7 +11212,7 @@
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574">
-        <f>((B574*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>81.125000000000014</v>
       </c>
       <c r="B574" s="1">
@@ -11217,7 +11230,7 @@
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575">
-        <f>((B575*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>81.327999999999989</v>
       </c>
       <c r="B575" s="1">
@@ -11235,7 +11248,7 @@
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576">
-        <f>((B576*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>81.515999999999991</v>
       </c>
       <c r="B576" s="1">
@@ -11253,7 +11266,7 @@
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577">
-        <f>((B577*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>81.719000000000008</v>
       </c>
       <c r="B577" s="1">
@@ -11271,7 +11284,7 @@
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578">
-        <f>((B578*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>81.921999999999997</v>
       </c>
       <c r="B578" s="1">
@@ -11289,7 +11302,7 @@
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579">
-        <f>((B579*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>82.125</v>
       </c>
       <c r="B579" s="1">
@@ -11307,7 +11320,7 @@
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580">
-        <f>((B580*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>82.327999999999989</v>
       </c>
       <c r="B580" s="1">
@@ -11325,7 +11338,7 @@
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581">
-        <f>((B581*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>82.531000000000006</v>
       </c>
       <c r="B581" s="1">
@@ -11343,7 +11356,7 @@
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582">
-        <f>((B582*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>82.734000000000009</v>
       </c>
       <c r="B582" s="1">
@@ -11361,7 +11374,7 @@
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583">
-        <f>((B583*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>82.936999999999998</v>
       </c>
       <c r="B583" s="1">
@@ -11379,7 +11392,7 @@
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584">
-        <f>((B584*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>83.141000000000005</v>
       </c>
       <c r="B584" s="1">
@@ -11397,7 +11410,7 @@
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585">
-        <f>((B585*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>83.344000000000008</v>
       </c>
       <c r="B585" s="1">
@@ -11415,7 +11428,7 @@
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586">
-        <f>((B586*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>83.546999999999983</v>
       </c>
       <c r="B586" s="1">
@@ -11433,7 +11446,7 @@
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587">
-        <f>((B587*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>83.750000000000014</v>
       </c>
       <c r="B587" s="1">
@@ -11451,7 +11464,7 @@
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588">
-        <f>((B588*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>83.952999999999989</v>
       </c>
       <c r="B588" s="1">
@@ -11469,7 +11482,7 @@
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589">
-        <f>((B589*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>84.155999999999992</v>
       </c>
       <c r="B589" s="1">
@@ -11487,7 +11500,7 @@
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590">
-        <f>((B590*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>84.358999999999995</v>
       </c>
       <c r="B590" s="1">
@@ -11505,7 +11518,7 @@
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591">
-        <f>((B591*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>84.561999999999983</v>
       </c>
       <c r="B591" s="1">
@@ -11523,7 +11536,7 @@
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592">
-        <f>((B592*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>84.765999999999991</v>
       </c>
       <c r="B592" s="1">
@@ -11541,7 +11554,7 @@
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593">
-        <f>((B593*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>84.968999999999994</v>
       </c>
       <c r="B593" s="1">
@@ -11559,7 +11572,7 @@
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594">
-        <f>((B594*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>85.171999999999997</v>
       </c>
       <c r="B594" s="1">
@@ -11577,7 +11590,7 @@
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595">
-        <f>((B595*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>85.375</v>
       </c>
       <c r="B595" s="1">
@@ -11595,7 +11608,7 @@
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596">
-        <f>((B596*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>85.561999999999998</v>
       </c>
       <c r="B596" s="1">
@@ -11613,7 +11626,7 @@
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597">
-        <f>((B597*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>85.765999999999991</v>
       </c>
       <c r="B597" s="1">
@@ -11631,7 +11644,7 @@
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598">
-        <f>((B598*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>85.968999999999994</v>
       </c>
       <c r="B598" s="1">
@@ -11649,7 +11662,7 @@
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599">
-        <f>((B599*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>86.171999999999983</v>
       </c>
       <c r="B599" s="1">
@@ -11667,7 +11680,7 @@
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600">
-        <f>((B600*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>86.375</v>
       </c>
       <c r="B600" s="1">
@@ -11685,7 +11698,7 @@
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601">
-        <f>((B601*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>86.577999999999989</v>
       </c>
       <c r="B601" s="1">
@@ -11703,7 +11716,7 @@
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602">
-        <f>((B602*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>86.781000000000006</v>
       </c>
       <c r="B602" s="1">
@@ -11721,7 +11734,7 @@
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603">
-        <f>((B603*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>86.984000000000009</v>
       </c>
       <c r="B603" s="1">
@@ -11739,7 +11752,7 @@
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604">
-        <f>((B604*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>87.187000000000012</v>
       </c>
       <c r="B604" s="1">
@@ -11757,7 +11770,7 @@
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605">
-        <f>((B605*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>87.390999999999991</v>
       </c>
       <c r="B605" s="1">
@@ -11775,7 +11788,7 @@
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606">
-        <f>((B606*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>87.594000000000008</v>
       </c>
       <c r="B606" s="1">
@@ -11793,7 +11806,7 @@
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607">
-        <f>((B607*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>87.796999999999997</v>
       </c>
       <c r="B607" s="1">
@@ -11811,7 +11824,7 @@
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608">
-        <f>((B608*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>87.999999999999986</v>
       </c>
       <c r="B608" s="1">
@@ -11829,7 +11842,7 @@
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609">
-        <f>((B609*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>88.202999999999989</v>
       </c>
       <c r="B609" s="1">
@@ -11847,7 +11860,7 @@
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610">
-        <f>((B610*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>88.405999999999992</v>
       </c>
       <c r="B610" s="1">
@@ -11865,7 +11878,7 @@
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611">
-        <f>((B611*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>88.608999999999995</v>
       </c>
       <c r="B611" s="1">
@@ -11883,7 +11896,7 @@
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612">
-        <f>((B612*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>88.812000000000012</v>
       </c>
       <c r="B612" s="1">
@@ -11901,7 +11914,7 @@
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613">
-        <f>((B613*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>89.015999999999991</v>
       </c>
       <c r="B613" s="1">
@@ -11919,7 +11932,7 @@
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614">
-        <f>((B614*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>89.21899999999998</v>
       </c>
       <c r="B614" s="1">
@@ -11937,7 +11950,7 @@
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615">
-        <f>((B615*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>89.421999999999997</v>
       </c>
       <c r="B615" s="1">
@@ -11955,7 +11968,7 @@
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616">
-        <f>((B616*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>89.625</v>
       </c>
       <c r="B616" s="1">
@@ -11973,7 +11986,7 @@
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617">
-        <f>((B617*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>89.811999999999998</v>
       </c>
       <c r="B617" s="1">
@@ -11991,7 +12004,7 @@
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618">
-        <f>((B618*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>90.015999999999991</v>
       </c>
       <c r="B618" s="1">
@@ -12009,7 +12022,7 @@
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619">
-        <f>((B619*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>90.218999999999994</v>
       </c>
       <c r="B619" s="1">
@@ -12027,7 +12040,7 @@
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620">
-        <f>((B620*86400))-6.063</f>
+        <f t="shared" si="12"/>
         <v>90.421999999999983</v>
       </c>
       <c r="B620" s="1">
@@ -12045,7 +12058,7 @@
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621">
-        <f>((B621*86400))-6.063</f>
+        <f t="shared" ref="A621:A684" si="13">((B621*86400))-6.063</f>
         <v>90.625000000000014</v>
       </c>
       <c r="B621" s="1">
@@ -12063,7 +12076,7 @@
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622">
-        <f>((B622*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>90.828000000000003</v>
       </c>
       <c r="B622" s="1">
@@ -12081,7 +12094,7 @@
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623">
-        <f>((B623*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>91.031000000000006</v>
       </c>
       <c r="B623" s="1">
@@ -12099,7 +12112,7 @@
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624">
-        <f>((B624*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>91.233999999999995</v>
       </c>
       <c r="B624" s="1">
@@ -12117,7 +12130,7 @@
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625">
-        <f>((B625*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>91.437000000000012</v>
       </c>
       <c r="B625" s="1">
@@ -12135,7 +12148,7 @@
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626">
-        <f>((B626*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>91.640999999999991</v>
       </c>
       <c r="B626" s="1">
@@ -12153,7 +12166,7 @@
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627">
-        <f>((B627*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>91.843999999999994</v>
       </c>
       <c r="B627" s="1">
@@ -12171,7 +12184,7 @@
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628">
-        <f>((B628*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>92.046999999999997</v>
       </c>
       <c r="B628" s="1">
@@ -12189,7 +12202,7 @@
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629">
-        <f>((B629*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>92.25</v>
       </c>
       <c r="B629" s="1">
@@ -12207,7 +12220,7 @@
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630">
-        <f>((B630*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>92.452999999999989</v>
       </c>
       <c r="B630" s="1">
@@ -12225,7 +12238,7 @@
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631">
-        <f>((B631*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>92.655999999999992</v>
       </c>
       <c r="B631" s="1">
@@ -12243,7 +12256,7 @@
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632">
-        <f>((B632*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>92.858999999999995</v>
       </c>
       <c r="B632" s="1">
@@ -12261,7 +12274,7 @@
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633">
-        <f>((B633*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>93.061999999999998</v>
       </c>
       <c r="B633" s="1">
@@ -12279,7 +12292,7 @@
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634">
-        <f>((B634*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>93.266000000000005</v>
       </c>
       <c r="B634" s="1">
@@ -12297,7 +12310,7 @@
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635">
-        <f>((B635*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>93.46899999999998</v>
       </c>
       <c r="B635" s="1">
@@ -12315,7 +12328,7 @@
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636">
-        <f>((B636*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>93.656000000000006</v>
       </c>
       <c r="B636" s="1">
@@ -12333,7 +12346,7 @@
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637">
-        <f>((B637*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>93.85899999999998</v>
       </c>
       <c r="B637" s="1">
@@ -12351,7 +12364,7 @@
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638">
-        <f>((B638*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>94.062000000000012</v>
       </c>
       <c r="B638" s="1">
@@ -12369,7 +12382,7 @@
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639">
-        <f>((B639*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>94.265999999999991</v>
       </c>
       <c r="B639" s="1">
@@ -12387,7 +12400,7 @@
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640">
-        <f>((B640*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>94.468999999999994</v>
       </c>
       <c r="B640" s="1">
@@ -12405,7 +12418,7 @@
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641">
-        <f>((B641*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>94.671999999999997</v>
       </c>
       <c r="B641" s="1">
@@ -12423,7 +12436,7 @@
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642">
-        <f>((B642*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>94.875000000000014</v>
       </c>
       <c r="B642" s="1">
@@ -12441,7 +12454,7 @@
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643">
-        <f>((B643*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>95.077999999999989</v>
       </c>
       <c r="B643" s="1">
@@ -12459,7 +12472,7 @@
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644">
-        <f>((B644*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>95.281000000000006</v>
       </c>
       <c r="B644" s="1">
@@ -12477,7 +12490,7 @@
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645">
-        <f>((B645*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>95.5</v>
       </c>
       <c r="B645" s="1">
@@ -12495,7 +12508,7 @@
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646">
-        <f>((B646*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>95.686999999999998</v>
       </c>
       <c r="B646" s="1">
@@ -12513,7 +12526,7 @@
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647">
-        <f>((B647*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>95.890999999999991</v>
       </c>
       <c r="B647" s="1">
@@ -12531,7 +12544,7 @@
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648">
-        <f>((B648*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>96.093999999999994</v>
       </c>
       <c r="B648" s="1">
@@ -12549,7 +12562,7 @@
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649">
-        <f>((B649*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>96.296999999999997</v>
       </c>
       <c r="B649" s="1">
@@ -12567,7 +12580,7 @@
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650">
-        <f>((B650*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>96.5</v>
       </c>
       <c r="B650" s="1">
@@ -12585,7 +12598,7 @@
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651">
-        <f>((B651*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>96.703000000000003</v>
       </c>
       <c r="B651" s="1">
@@ -12603,7 +12616,7 @@
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652">
-        <f>((B652*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>96.905999999999992</v>
       </c>
       <c r="B652" s="1">
@@ -12621,7 +12634,7 @@
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653">
-        <f>((B653*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>97.108999999999995</v>
       </c>
       <c r="B653" s="1">
@@ -12639,7 +12652,7 @@
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654">
-        <f>((B654*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>97.311999999999998</v>
       </c>
       <c r="B654" s="1">
@@ -12657,7 +12670,7 @@
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655">
-        <f>((B655*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>97.516000000000005</v>
       </c>
       <c r="B655" s="1">
@@ -12675,7 +12688,7 @@
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656">
-        <f>((B656*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>97.702999999999989</v>
       </c>
       <c r="B656" s="1">
@@ -12693,7 +12706,7 @@
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657">
-        <f>((B657*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>97.921999999999997</v>
       </c>
       <c r="B657" s="1">
@@ -12711,7 +12724,7 @@
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658">
-        <f>((B658*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>98.108999999999995</v>
       </c>
       <c r="B658" s="1">
@@ -12729,7 +12742,7 @@
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659">
-        <f>((B659*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>98.312000000000012</v>
       </c>
       <c r="B659" s="1">
@@ -12747,7 +12760,7 @@
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660">
-        <f>((B660*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>98.515999999999991</v>
       </c>
       <c r="B660" s="1">
@@ -12765,7 +12778,7 @@
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661">
-        <f>((B661*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>98.718999999999994</v>
       </c>
       <c r="B661" s="1">
@@ -12783,7 +12796,7 @@
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662">
-        <f>((B662*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>98.921999999999997</v>
       </c>
       <c r="B662" s="1">
@@ -12801,7 +12814,7 @@
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663">
-        <f>((B663*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>99.125000000000014</v>
       </c>
       <c r="B663" s="1">
@@ -12819,7 +12832,7 @@
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664">
-        <f>((B664*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>99.327999999999989</v>
       </c>
       <c r="B664" s="1">
@@ -12837,7 +12850,7 @@
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665">
-        <f>((B665*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>99.530999999999992</v>
       </c>
       <c r="B665" s="1">
@@ -12855,7 +12868,7 @@
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666">
-        <f>((B666*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>99.733999999999995</v>
       </c>
       <c r="B666" s="1">
@@ -12873,7 +12886,7 @@
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667">
-        <f>((B667*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>99.936999999999998</v>
       </c>
       <c r="B667" s="1">
@@ -12891,7 +12904,7 @@
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668">
-        <f>((B668*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>100.14100000000001</v>
       </c>
       <c r="B668" s="1">
@@ -12909,7 +12922,7 @@
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669">
-        <f>((B669*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>100.34399999999999</v>
       </c>
       <c r="B669" s="1">
@@ -12927,7 +12940,7 @@
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670">
-        <f>((B670*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>100.547</v>
       </c>
       <c r="B670" s="1">
@@ -12945,7 +12958,7 @@
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671">
-        <f>((B671*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>100.74999999999999</v>
       </c>
       <c r="B671" s="1">
@@ -12963,7 +12976,7 @@
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672">
-        <f>((B672*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>100.953</v>
       </c>
       <c r="B672" s="1">
@@ -12981,7 +12994,7 @@
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673">
-        <f>((B673*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>101.15599999999999</v>
       </c>
       <c r="B673" s="1">
@@ -12999,7 +13012,7 @@
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674">
-        <f>((B674*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>101.35899999999999</v>
       </c>
       <c r="B674" s="1">
@@ -13017,7 +13030,7 @@
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675">
-        <f>((B675*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>101.562</v>
       </c>
       <c r="B675" s="1">
@@ -13035,7 +13048,7 @@
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676">
-        <f>((B676*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>101.76600000000001</v>
       </c>
       <c r="B676" s="1">
@@ -13053,7 +13066,7 @@
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677">
-        <f>((B677*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>101.95299999999999</v>
       </c>
       <c r="B677" s="1">
@@ -13071,7 +13084,7 @@
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678">
-        <f>((B678*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>102.15599999999999</v>
       </c>
       <c r="B678" s="1">
@@ -13089,7 +13102,7 @@
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679">
-        <f>((B679*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>102.35899999999999</v>
       </c>
       <c r="B679" s="1">
@@ -13107,7 +13120,7 @@
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680">
-        <f>((B680*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>102.56200000000001</v>
       </c>
       <c r="B680" s="1">
@@ -13125,7 +13138,7 @@
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681">
-        <f>((B681*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>102.76599999999999</v>
       </c>
       <c r="B681" s="1">
@@ -13143,7 +13156,7 @@
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682">
-        <f>((B682*86400))-6.063</f>
+        <f t="shared" si="13"/>
         <v>102.96899999999999</v>
       </c>
       <c r="B682" s="1">
